--- a/Common/Excel/物品配置.xlsx
+++ b/Common/Excel/物品配置.xlsx
@@ -89,7 +89,7 @@
     <t>面包A</t>
   </si>
   <si>
-    <t>10001|10#10101|10</t>
+    <t>10001|10|10002|5#10002|10</t>
   </si>
   <si>
     <t>ID规划</t>
@@ -112,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,6 +145,28 @@
       <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,19 +186,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -185,33 +224,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,38 +255,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -303,31 +303,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,133 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -504,16 +524,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,36 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,79 +596,79 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,56 +677,56 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,12 +740,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="32" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1078,9 +1072,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="5"/>
-    <col min="2" max="2" width="12.1083333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88333333333333" style="5"/>
+    <col min="1" max="1" width="8.88333333333333" style="1"/>
+    <col min="2" max="2" width="12.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="15.75" spans="1:3">
@@ -1094,14 +1088,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="15" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1118,7 +1112,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1190,81 +1184,81 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>10001</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <f>A4</f>
         <v>10001</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>10002</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <f>A5</f>
         <v>10002</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>10101</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <f>A6</f>
         <v>10101</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="8:9">
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="8:9">
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
